--- a/Results/Resulaten Tabel excel.xlsx
+++ b/Results/Resulaten Tabel excel.xlsx
@@ -1,18 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr date1904="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicole\Documents\Psychobiologie\Minor\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1 - Results Rush Hour Sol" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet 1 - Results Rush Hour Sol" sheetId="1" r:id="rId1"/>
+    <sheet name="iteraties per bord" sheetId="2" r:id="rId2"/>
+    <sheet name="moves + iteraties bord 1" sheetId="4" r:id="rId3"/>
+    <sheet name="moves + iteraties bord 3" sheetId="6" r:id="rId4"/>
+    <sheet name="Blad6" sheetId="7" r:id="rId5"/>
+    <sheet name="moves + iteraties bord 2" sheetId="5" r:id="rId6"/>
+    <sheet name="moves per bord" sheetId="3" r:id="rId7"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
   <si>
     <t>Results Rush Hour Solving Algorithms</t>
   </si>
@@ -64,15 +77,48 @@
   <si>
     <t>Board 7</t>
   </si>
+  <si>
+    <t>BFS</t>
+  </si>
+  <si>
+    <t>A* 1</t>
+  </si>
+  <si>
+    <t>Bord 1</t>
+  </si>
+  <si>
+    <t>Bord 2</t>
+  </si>
+  <si>
+    <t>Bord 3</t>
+  </si>
+  <si>
+    <t>Bord 4</t>
+  </si>
+  <si>
+    <t>Bord 5</t>
+  </si>
+  <si>
+    <t>Bord 6</t>
+  </si>
+  <si>
+    <t>Beam Search</t>
+  </si>
+  <si>
+    <t>Zetten</t>
+  </si>
+  <si>
+    <t>Iteraties</t>
+  </si>
+  <si>
+    <t>A*</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -84,7 +130,7 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -225,81 +271,8188 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFBDC0BF"/>
+      <rgbColor rgb="FFA5A5A5"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFDBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Aantal iteraties per algoritme per bord</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'iteraties per bord'!$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.7367298611792818E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-3.0573244318739579E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.6985135732633085E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'iteraties per bord'!$B$6:$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bord 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bord 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bord 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bord 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Bord 5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bord 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'iteraties per bord'!$B$7:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>290406</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'iteraties per bord'!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'iteraties per bord'!$B$6:$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bord 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bord 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bord 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bord 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Bord 5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bord 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'iteraties per bord'!$B$8:$L$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'iteraties per bord'!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A* 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.0191081439579922E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.3948846293996513E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-1.019108143957986E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.4921397468599187E-2"/>
+                  <c:y val="-2.038216287915972E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'iteraties per bord'!$B$6:$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bord 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bord 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bord 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bord 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Bord 5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bord 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'iteraties per bord'!$B$9:$L$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1816</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>130287</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'iteraties per bord'!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'iteraties per bord'!$B$6:$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bord 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bord 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bord 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bord 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Bord 5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bord 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'iteraties per bord'!$B$10:$L$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'iteraties per bord'!$A$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beam Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.3948846293996513E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="4.2632564195997282E-3"/>
+                  <c:y val="1.019108143957986E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.3447910307798723E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'iteraties per bord'!$B$6:$L$6</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Bord 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bord 2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bord 3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Bord 4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Bord 5</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Bord 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'iteraties per bord'!$B$11:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3830</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46661</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>324411</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>120935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="0"/>
+        <c:gapDepth val="308"/>
+        <c:shape val="box"/>
+        <c:axId val="369430632"/>
+        <c:axId val="369432592"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="369430632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369432592"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="369432592"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="369430632"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bord 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43438188976377945"/>
+          <c:y val="7.8703703703703706E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="10"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'moves + iteraties bord 1'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zetten</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5462668816039986E-17"/>
+                  <c:y val="8.3333333333333245E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.3333333333333245E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.3333333333333245E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'moves + iteraties bord 1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A* 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Beam Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'moves + iteraties bord 1'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'moves + iteraties bord 1'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iteraties</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="7.8703703703703665E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="7.4074074074074028E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="7.8703703703703706E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'moves + iteraties bord 1'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A* 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Beam Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'moves + iteraties bord 1'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3830</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="418162560"/>
+        <c:axId val="418164128"/>
+        <c:axId val="420071112"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="418162560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418164128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="418164128"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418162560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="420071112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="418164128"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Bord 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'moves + iteraties bord 3'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zetten</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.5462668816039986E-17"/>
+                  <c:y val="7.8703703703703706E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.3333333333333329E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7777777777777779E-3"/>
+                  <c:y val="8.3333333333333329E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'moves + iteraties bord 3'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Beam Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'moves + iteraties bord 3'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'moves + iteraties bord 3'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iteraties</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7777777777777779E-3"/>
+                  <c:y val="8.7962962962962965E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.7962962962962965E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.7962962962963007E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'moves + iteraties bord 3'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Beam Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'moves + iteraties bord 3'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>386</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="370897280"/>
+        <c:axId val="370894144"/>
+        <c:axId val="298729232"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="370897280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370894144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="370894144"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="370897280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="298729232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="370894144"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Bord 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zetten</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.3333333333333245E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7777777777778286E-3"/>
+                  <c:y val="7.870370370370354E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.0185067526415994E-16"/>
+                  <c:y val="7.407407407407407E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad6!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Beam Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad6!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>832</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad6!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iteraties</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="9.2592592592592587E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7777777777777779E-3"/>
+                  <c:y val="8.7962962962962923E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.3333333333333245E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Blad6!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A*</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Beam Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad6!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>290406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>130287</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>46661</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="410639064"/>
+        <c:axId val="410637496"/>
+        <c:axId val="419973016"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="410639064"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410637496"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="410637496"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="410639064"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="419973016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="410637496"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Bord 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.43715966754155727"/>
+          <c:y val="4.6296296296296294E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'moves + iteraties bord 2'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zetten</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7777777777777779E-3"/>
+                  <c:y val="7.8703703703703623E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.7777777777778286E-3"/>
+                  <c:y val="8.3333333333333245E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.3333333333333245E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'moves + iteraties bord 2'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A* 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Beam Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'moves + iteraties bord 2'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'moves + iteraties bord 2'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iteraties</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.3333333333333287E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="7.8703703703703706E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="8.7962962962962965E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'moves + iteraties bord 2'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>A* 1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Beam Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'moves + iteraties bord 2'!$C$2:$C$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3551</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1816</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>567</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="418615456"/>
+        <c:axId val="418623296"/>
+        <c:axId val="298727112"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="418615456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418623296"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="418623296"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418615456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="298727112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="418623296"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL"/>
+              <a:t>Aantal zetten per algoritme per bord</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'moves per bord'!$A$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'moves per bord'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bord 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bord 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bord 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bord 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bord 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bord 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'moves per bord'!$B$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'moves per bord'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'moves per bord'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bord 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bord 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bord 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bord 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bord 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bord 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'moves per bord'!$B$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'moves per bord'!$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A* 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'moves per bord'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bord 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bord 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bord 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bord 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bord 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bord 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'moves per bord'!$B$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'moves per bord'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'moves per bord'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bord 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bord 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bord 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bord 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bord 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bord 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'moves per bord'!$B$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'moves per bord'!$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Beam Search</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="9.3896713615023181E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'moves per bord'!$B$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>Bord 1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Bord 2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Bord 3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Bord 4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Bord 5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Bord 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'moves per bord'!$B$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7195</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1795</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="418159424"/>
+        <c:axId val="418160600"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="418159424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418160600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="418160600"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="418159424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:legendEntry>
+        <c:idx val="1"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="3"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>423863</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Grafiek 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Grafiek 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -425,7 +8578,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -434,7 +8587,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -443,7 +8596,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -507,8 +8660,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -516,7 +8669,7 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
@@ -524,7 +8677,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -543,7 +8696,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -551,7 +8704,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -579,7 +8732,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -605,7 +8758,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -631,7 +8784,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -657,7 +8810,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -683,7 +8836,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -709,7 +8862,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -735,7 +8888,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -761,7 +8914,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -787,7 +8940,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -800,9 +8953,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -819,7 +8978,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -838,7 +8997,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -864,7 +9023,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -890,7 +9049,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -916,7 +9075,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -942,7 +9101,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -968,7 +9127,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -994,7 +9153,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1020,7 +9179,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1046,7 +9205,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1072,7 +9231,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,9 +9244,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1101,7 +9266,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1120,7 +9285,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1150,7 +9315,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1176,7 +9341,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1202,7 +9367,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1228,7 +9393,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1254,7 +9419,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1280,7 +9445,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1306,7 +9471,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1332,7 +9497,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1358,7 +9523,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1371,436 +9536,919 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G23"/>
+  <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F13" activeCellId="1" sqref="C13:D13 F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
     </row>
-    <row r="2" ht="32.55" customHeight="1">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" t="s" s="4">
+    <row r="2" spans="1:7" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="4">
+      <c r="D2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="4">
+      <c r="E2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s" s="4">
+      <c r="F2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s" s="4">
+      <c r="G2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" t="s" s="5">
+    <row r="3" spans="1:7" ht="20.65" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s" s="6">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>83</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>83</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>83</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>115</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="6">
         <v>93</v>
       </c>
     </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="8"/>
-      <c r="B4" t="s" s="9">
+    <row r="4" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="9">
         <v>8600</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D4" s="9">
         <v>6927</v>
       </c>
-      <c r="E4" s="10">
+      <c r="E4" s="9">
         <v>7084</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>3830</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="9">
         <v>4934</v>
       </c>
     </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="8"/>
-      <c r="B5" t="s" s="9">
+    <row r="5" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10">
-        <v>13.303</v>
-      </c>
-      <c r="D5" s="10">
+      <c r="C5" s="9">
+        <v>13.303000000000001</v>
+      </c>
+      <c r="D5" s="9">
         <v>10.061</v>
       </c>
-      <c r="E5" s="10">
+      <c r="E5" s="9">
         <v>11.42</v>
       </c>
-      <c r="F5" s="10">
+      <c r="F5" s="9">
         <v>7.16</v>
       </c>
-      <c r="G5" s="10">
-        <v>7.864</v>
+      <c r="G5" s="9">
+        <v>7.8639999999999999</v>
       </c>
     </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" t="s" s="11">
+    <row r="6" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" t="s" s="9">
+      <c r="B6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="9">
         <v>29</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D6" s="9">
         <v>29</v>
       </c>
-      <c r="E6" s="10">
+      <c r="E6" s="9">
         <v>29</v>
       </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>31</v>
       </c>
-      <c r="G6" s="10">
+      <c r="G6" s="9">
         <v>32</v>
       </c>
     </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="8"/>
-      <c r="B7" t="s" s="9">
+    <row r="7" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>3551</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>1816</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E7" s="9">
         <v>1700</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>567</v>
       </c>
-      <c r="G7" s="10">
+      <c r="G7" s="9">
         <v>1036</v>
       </c>
     </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="8"/>
-      <c r="B8" t="s" s="9">
+    <row r="8" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="10">
-        <v>6.059</v>
-      </c>
-      <c r="D8" s="10">
-        <v>3.682</v>
-      </c>
-      <c r="E8" s="10">
+      <c r="C8" s="9">
+        <v>6.0590000000000002</v>
+      </c>
+      <c r="D8" s="9">
+        <v>3.6819999999999999</v>
+      </c>
+      <c r="E8" s="9">
         <v>3.38</v>
       </c>
-      <c r="F8" s="10">
+      <c r="F8" s="9">
         <v>1.153</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="9">
         <v>1.952</v>
       </c>
     </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" t="s" s="11">
+    <row r="9" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="B9" t="s" s="9">
+      <c r="B9" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="9">
         <v>35</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D9" s="9">
         <v>37</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E9" s="9">
         <v>37</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>38</v>
       </c>
-      <c r="G9" t="s" s="12">
+      <c r="G9" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="8"/>
-      <c r="B10" t="s" s="9">
+    <row r="10" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>486</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D10" s="9">
         <v>435</v>
       </c>
-      <c r="E10" s="10">
+      <c r="E10" s="9">
         <v>430</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="9">
         <v>386</v>
       </c>
-      <c r="G10" t="s" s="12">
+      <c r="G10" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="8"/>
-      <c r="B11" t="s" s="9">
+    <row r="11" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="10">
-        <v>0.6860000000000001</v>
-      </c>
-      <c r="D11" s="10">
-        <v>0.679</v>
-      </c>
-      <c r="E11" s="10">
+      <c r="C11" s="9">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="E11" s="9">
         <v>0.71</v>
       </c>
-      <c r="F11" s="10">
-        <v>0.553</v>
-      </c>
-      <c r="G11" t="s" s="12">
+      <c r="F11" s="9">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="G11" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" t="s" s="11">
+    <row r="12" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B12" t="s" s="9">
+      <c r="B12" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="9">
         <v>51</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="9">
         <v>53</v>
       </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="10">
+      <c r="E12" s="12"/>
+      <c r="F12" s="9">
         <v>832</v>
       </c>
-      <c r="G12" s="10">
+      <c r="G12" s="9">
         <v>324</v>
       </c>
     </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="8"/>
-      <c r="B13" t="s" s="9">
+    <row r="13" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>290406</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="9">
         <v>130287</v>
       </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="10">
+      <c r="E13" s="12"/>
+      <c r="F13" s="9">
         <v>46661</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="9">
         <v>33088</v>
       </c>
     </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="8"/>
-      <c r="B14" t="s" s="9">
+    <row r="14" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="10">
-        <v>1324.007</v>
-      </c>
-      <c r="D14" s="10">
-        <v>597.1609999999999</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="10">
-        <v>306.728</v>
-      </c>
-      <c r="G14" s="10">
+      <c r="C14" s="9">
+        <v>1324.0070000000001</v>
+      </c>
+      <c r="D14" s="9">
+        <v>597.16099999999994</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="9">
+        <v>306.72800000000001</v>
+      </c>
+      <c r="G14" s="9">
         <v>212.779</v>
       </c>
     </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" t="s" s="11">
+    <row r="15" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s" s="9">
+      <c r="B15" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="13"/>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12">
+        <v>7195</v>
+      </c>
+      <c r="G15" s="12"/>
     </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="8"/>
-      <c r="B16" t="s" s="9">
+    <row r="16" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12">
+        <v>324411</v>
+      </c>
+      <c r="G16" s="12"/>
     </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="8"/>
-      <c r="B17" t="s" s="9">
+    <row r="17" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="14">
+        <v>2500270</v>
+      </c>
+      <c r="G17" s="12"/>
     </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" t="s" s="11">
+    <row r="18" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B18" t="s" s="9">
+      <c r="B18" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12">
+        <v>1759</v>
+      </c>
+      <c r="G18" s="12"/>
     </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="8"/>
-      <c r="B19" t="s" s="9">
+    <row r="19" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12">
+        <v>120935</v>
+      </c>
+      <c r="G19" s="12"/>
     </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="8"/>
-      <c r="B20" t="s" s="9">
+    <row r="20" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="14">
+        <v>1035075</v>
+      </c>
+      <c r="G20" s="12"/>
     </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" t="s" s="11">
+    <row r="21" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B21" t="s" s="9">
+      <c r="B21" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C21" s="13"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="13"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
     </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="8"/>
-      <c r="B22" t="s" s="9">
+    <row r="22" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
     </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="8"/>
-      <c r="B23" t="s" s="9">
+    <row r="23" spans="1:7" ht="20.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:G1"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="9">
+        <v>8600</v>
+      </c>
+      <c r="B1" s="9">
+        <v>6927</v>
+      </c>
+      <c r="C1" s="9">
+        <v>7084</v>
+      </c>
+      <c r="D1" s="9">
+        <v>3830</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="9">
+        <v>3551</v>
+      </c>
+      <c r="B2" s="9">
+        <v>1816</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1700</v>
+      </c>
+      <c r="D2" s="9">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="9">
+        <v>486</v>
+      </c>
+      <c r="B3" s="9">
+        <v>435</v>
+      </c>
+      <c r="C3" s="9">
+        <v>430</v>
+      </c>
+      <c r="D3" s="9">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>290406</v>
+      </c>
+      <c r="B4" s="9">
+        <v>130287</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="9">
+        <v>46661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7">
+        <v>8600</v>
+      </c>
+      <c r="D7">
+        <v>3551</v>
+      </c>
+      <c r="F7">
+        <v>486</v>
+      </c>
+      <c r="H7">
+        <v>290406</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>6927</v>
+      </c>
+      <c r="D9">
+        <v>1816</v>
+      </c>
+      <c r="F9">
+        <v>435</v>
+      </c>
+      <c r="H9">
+        <v>130287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>3830</v>
+      </c>
+      <c r="D11">
+        <v>567</v>
+      </c>
+      <c r="F11">
+        <v>386</v>
+      </c>
+      <c r="H11">
+        <v>46661</v>
+      </c>
+      <c r="J11" s="12">
+        <v>324411</v>
+      </c>
+      <c r="L11" s="12">
+        <v>120935</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>83</v>
+      </c>
+      <c r="C2">
+        <v>8600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>6927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>115</v>
+      </c>
+      <c r="C4">
+        <v>3830</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2" s="9">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>37</v>
+      </c>
+      <c r="C3" s="9">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>38</v>
+      </c>
+      <c r="C4" s="9">
+        <v>386</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="9">
+        <v>51</v>
+      </c>
+      <c r="C2" s="9">
+        <v>290406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="9">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9">
+        <v>130287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="9">
+        <v>832</v>
+      </c>
+      <c r="C4" s="9">
+        <v>46661</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>83</v>
+      </c>
+      <c r="C2">
+        <v>29</v>
+      </c>
+      <c r="D2">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>83</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>115</v>
+      </c>
+      <c r="C6">
+        <v>31</v>
+      </c>
+      <c r="D6">
+        <v>38</v>
+      </c>
+      <c r="E6">
+        <v>832</v>
+      </c>
+      <c r="F6">
+        <v>7195</v>
+      </c>
+      <c r="G6">
+        <v>1795</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Results/Resulaten Tabel excel.xlsx
+++ b/Results/Resulaten Tabel excel.xlsx
@@ -5,27 +5,28 @@
   <workbookPr date1904="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicole\Documents\Psychobiologie\Minor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicole\Documents\Psychobiologie\Minor\GitHub RushHour\Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Results Rush Hour Sol" sheetId="1" r:id="rId1"/>
     <sheet name="iteraties per bord" sheetId="2" r:id="rId2"/>
-    <sheet name="moves + iteraties bord 1" sheetId="4" r:id="rId3"/>
-    <sheet name="moves + iteraties bord 3" sheetId="6" r:id="rId4"/>
-    <sheet name="Blad6" sheetId="7" r:id="rId5"/>
-    <sheet name="moves + iteraties bord 2" sheetId="5" r:id="rId6"/>
-    <sheet name="moves per bord" sheetId="3" r:id="rId7"/>
+    <sheet name="Blad1" sheetId="8" r:id="rId3"/>
+    <sheet name="moves + iteraties bord 1" sheetId="4" r:id="rId4"/>
+    <sheet name="moves + iteraties bord 3" sheetId="6" r:id="rId5"/>
+    <sheet name="moves + iteraties bord 4" sheetId="7" r:id="rId6"/>
+    <sheet name="moves + iteraties bord 2" sheetId="5" r:id="rId7"/>
+    <sheet name="moves per bord" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="29">
   <si>
     <t>Results Rush Hour Solving Algorithms</t>
   </si>
@@ -275,7 +276,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -315,10 +316,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -394,6 +398,10 @@
       <rgbColor rgb="00333399"/>
       <rgbColor rgb="00333333"/>
     </indexedColors>
+    <mruColors>
+      <color rgb="FFF28A00"/>
+      <color rgb="FFFFB965"/>
+    </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -915,7 +923,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1248,12 +1255,12 @@
         <c:gapWidth val="0"/>
         <c:gapDepth val="308"/>
         <c:shape val="box"/>
-        <c:axId val="369430632"/>
-        <c:axId val="369432592"/>
+        <c:axId val="308867720"/>
+        <c:axId val="121620152"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="369430632"/>
+        <c:axId val="308867720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1297,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369432592"/>
+        <c:crossAx val="121620152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1298,7 +1305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="369432592"/>
+        <c:axId val="121620152"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1350,7 +1357,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="369430632"/>
+        <c:crossAx val="308867720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1440,6 +1447,1776 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="nl-NL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="2400"/>
+              <a:t>Zetten</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="nl-NL" sz="2400" baseline="0"/>
+              <a:t> en iteraties voor alle borden en alle algoritmes</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-NL" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14759954865572578"/>
+          <c:y val="0.17418933451573754"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Zetten</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFB965"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFB965"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFB965"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="40000"/>
+                  <a:lumOff val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="17"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="8.394286422870325E-18"/>
+                  <c:y val="4.6421663442939944E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="4.6421663442939944E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="4.6421663442939944E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="4.6421663442940041E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.35771456914813E-17"/>
+                  <c:y val="4.6421663442940041E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="4.6421663442940041E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="4.6421663442940041E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="4.6421663442939944E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="4.6421663442940041E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.71542913829626E-17"/>
+                  <c:y val="4.3842682140554388E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="6.71542913829626E-17"/>
+                  <c:y val="4.6421663442939944E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-6.71542913829626E-17"/>
+                  <c:y val="4.6421663442940041E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.5267702936097731E-3"/>
+                  <c:y val="4.6421732074743094E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.7358634768355102E-3"/>
+                  <c:y val="4.6421697287838952E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$B$7:$S$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BFS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>A*</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Beam Search</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BFS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>A*</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Beam Search</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>BFS</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>A*</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Beam Search</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>BFS</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>A*</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Beam Search</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>BFS</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>A*</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Beam Search</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>BFS</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>A*</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Beam Search</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Bord 1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Bord 2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Bord 3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Bord 4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Bord 5</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Bord 6</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$B$9:$S$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7195</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1759</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Blad1!$A$10</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Iteraties</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F28A00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F28A00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="F28A00"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="10"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="11"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="14"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="0070C0"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7472527472527475E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.6630036630036799E-3"/>
+                  <c:y val="-4.7280777685490106E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7472527472527475E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.663003663003663E-3"/>
+                  <c:y val="-4.7280777685490106E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7472527472527136E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7472527472527475E-3"/>
+                  <c:y val="-4.7280777685490106E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.8315018315018315E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7472527472527475E-3"/>
+                  <c:y val="-2.5789813023855577E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="8"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.663003663003663E-3"/>
+                  <c:y val="-9.4561555370980212E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7472527472527475E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="10"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="3.663003663003663E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="11"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.7472527472527475E-3"/>
+                  <c:y val="-2.5789813023855577E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.4945054945054949E-3"/>
+                  <c:y val="-4.7280777685490106E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="17"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="2.747252747252613E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-NL"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Blad1!$B$7:$S$8</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="18"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BFS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>A*</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Beam Search</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>BFS</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>A*</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Beam Search</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>BFS</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>A*</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Beam Search</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>BFS</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>A*</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Beam Search</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>BFS</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>A*</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Beam Search</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>BFS</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>A*</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Beam Search</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Bord 1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Bord 2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Bord 3</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Bord 4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Bord 5</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Bord 6</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Blad1!$B$10:$S$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>8600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3830</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3551</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1816</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>567</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>486</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>435</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>386</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>290406</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>130287</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>46661</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>324411</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>120935</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="398382608"/>
+        <c:axId val="398383000"/>
+        <c:axId val="401719664"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="398382608"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398383000"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="398383000"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398382608"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="401719664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1050" b="0" i="1" u="none" strike="noStrike" kern="1200" cap="none" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398383000"/>
+        <c:crosses val="autoZero"/>
+        <c:tickLblSkip val="1"/>
+        <c:tickMarkSkip val="1"/>
+      </c:serAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="nl-NL"/>
@@ -1689,7 +3466,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1868,7 +3644,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1933,12 +3708,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="418162560"/>
-        <c:axId val="418164128"/>
-        <c:axId val="420071112"/>
+        <c:axId val="309789680"/>
+        <c:axId val="309776152"/>
+        <c:axId val="308697824"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="418162560"/>
+        <c:axId val="309789680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1975,7 +3750,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418164128"/>
+        <c:crossAx val="309776152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1983,7 +3758,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="418164128"/>
+        <c:axId val="309776152"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2035,12 +3810,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418162560"/>
+        <c:crossAx val="309789680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="420071112"/>
+        <c:axId val="308697824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,7 +3824,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="418164128"/>
+        <c:crossAx val="309776152"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -2129,7 +3904,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="nl-NL"/>
@@ -2372,7 +4147,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2551,7 +4325,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2616,12 +4389,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="370897280"/>
-        <c:axId val="370894144"/>
-        <c:axId val="298729232"/>
+        <c:axId val="309778616"/>
+        <c:axId val="310547240"/>
+        <c:axId val="310512720"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="370897280"/>
+        <c:axId val="309778616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2658,7 +4431,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370894144"/>
+        <c:crossAx val="310547240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2666,7 +4439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="370894144"/>
+        <c:axId val="310547240"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -2718,12 +4491,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370897280"/>
+        <c:crossAx val="309778616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="298729232"/>
+        <c:axId val="310512720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2732,7 +4505,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="370894144"/>
+        <c:crossAx val="310547240"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -2812,7 +4585,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="nl-NL"/>
@@ -2933,7 +4706,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad6!$B$1</c:f>
+              <c:f>'moves + iteraties bord 4'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3055,7 +4828,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3076,7 +4848,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Blad6!$A$2:$A$4</c:f>
+              <c:f>'moves + iteraties bord 4'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3093,7 +4865,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad6!$B$2:$B$4</c:f>
+              <c:f>'moves + iteraties bord 4'!$B$2:$B$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3115,7 +4887,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Blad6!$C$1</c:f>
+              <c:f>'moves + iteraties bord 4'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3234,7 +5006,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3255,7 +5026,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Blad6!$A$2:$A$4</c:f>
+              <c:f>'moves + iteraties bord 4'!$A$2:$A$4</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -3272,7 +5043,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Blad6!$C$2:$C$4</c:f>
+              <c:f>'moves + iteraties bord 4'!$C$2:$C$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3299,12 +5070,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="410639064"/>
-        <c:axId val="410637496"/>
-        <c:axId val="419973016"/>
+        <c:axId val="122150960"/>
+        <c:axId val="122150568"/>
+        <c:axId val="310516960"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="410639064"/>
+        <c:axId val="122150960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3341,7 +5112,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410637496"/>
+        <c:crossAx val="122150568"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3349,7 +5120,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="410637496"/>
+        <c:axId val="122150568"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3401,12 +5172,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="410639064"/>
+        <c:crossAx val="122150960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="419973016"/>
+        <c:axId val="310516960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3415,7 +5186,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="410637496"/>
+        <c:crossAx val="122150568"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -3495,7 +5266,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="nl-NL"/>
@@ -3745,7 +5516,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3924,7 +5694,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3989,12 +5758,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="418615456"/>
-        <c:axId val="418623296"/>
-        <c:axId val="298727112"/>
+        <c:axId val="122151352"/>
+        <c:axId val="310261864"/>
+        <c:axId val="310514416"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="418615456"/>
+        <c:axId val="122151352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4031,7 +5800,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418623296"/>
+        <c:crossAx val="310261864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4039,7 +5808,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="418623296"/>
+        <c:axId val="310261864"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4091,12 +5860,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418615456"/>
+        <c:crossAx val="122151352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="298727112"/>
+        <c:axId val="310514416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4105,7 +5874,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="418623296"/>
+        <c:crossAx val="310261864"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -4185,7 +5954,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="nl-NL"/>
@@ -4846,12 +6615,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="418159424"/>
-        <c:axId val="418160600"/>
+        <c:axId val="310262256"/>
+        <c:axId val="310262648"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="418159424"/>
+        <c:axId val="310262256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4888,7 +6657,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418160600"/>
+        <c:crossAx val="310262648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4896,7 +6665,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="418160600"/>
+        <c:axId val="310262648"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4948,7 +6717,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="418159424"/>
+        <c:crossAx val="310262256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5277,6 +7046,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -8241,19 +10050,513 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>323851</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>423863</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>366713</xdr:colOff>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -8280,20 +10583,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvPr id="4" name="Grafiek 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8316,15 +10619,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>147637</xdr:rowOff>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8417,6 +10720,41 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Grafiek 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9560,11 +11898,11 @@
   </sheetPr>
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F13" activeCellId="1" sqref="C13:D13 F13"/>
+      <selection pane="bottomRight" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -9573,15 +11911,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
     </row>
     <row r="2" spans="1:7" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -9892,7 +12230,7 @@
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
       <c r="E17" s="12"/>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>2500270</v>
       </c>
       <c r="G17" s="12"/>
@@ -9933,7 +12271,7 @@
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="12"/>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>1035075</v>
       </c>
       <c r="G20" s="12"/>
@@ -9989,8 +12327,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10134,58 +12472,345 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D2" t="s">
         <v>27</v>
       </c>
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
+      <c r="B3">
+        <v>8600</v>
+      </c>
+      <c r="C3">
         <v>83</v>
       </c>
-      <c r="C2">
+      <c r="D3">
+        <v>3551</v>
+      </c>
+      <c r="E3">
+        <v>29</v>
+      </c>
+      <c r="F3">
+        <v>486</v>
+      </c>
+      <c r="G3">
+        <v>35</v>
+      </c>
+      <c r="H3">
+        <v>290406</v>
+      </c>
+      <c r="I3" s="9">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>6927</v>
+      </c>
+      <c r="C4">
+        <v>83</v>
+      </c>
+      <c r="D4">
+        <v>1816</v>
+      </c>
+      <c r="E4">
+        <v>29</v>
+      </c>
+      <c r="F4">
+        <v>435</v>
+      </c>
+      <c r="G4">
+        <v>37</v>
+      </c>
+      <c r="H4">
+        <v>130287</v>
+      </c>
+      <c r="I4" s="9">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>3830</v>
+      </c>
+      <c r="C5">
+        <v>85</v>
+      </c>
+      <c r="D5">
+        <v>567</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>386</v>
+      </c>
+      <c r="G5">
+        <v>38</v>
+      </c>
+      <c r="H5">
+        <v>46661</v>
+      </c>
+      <c r="I5" s="9">
+        <v>832</v>
+      </c>
+      <c r="J5" s="12">
+        <v>324411</v>
+      </c>
+      <c r="K5" s="12">
+        <v>7195</v>
+      </c>
+      <c r="L5" s="12">
+        <v>120935</v>
+      </c>
+      <c r="M5" s="12">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" t="s">
+        <v>28</v>
+      </c>
+      <c r="P8" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>83</v>
+      </c>
+      <c r="C9">
+        <v>83</v>
+      </c>
+      <c r="D9">
+        <v>85</v>
+      </c>
+      <c r="E9">
+        <v>29</v>
+      </c>
+      <c r="F9">
+        <v>29</v>
+      </c>
+      <c r="G9">
+        <v>31</v>
+      </c>
+      <c r="H9">
+        <v>35</v>
+      </c>
+      <c r="I9">
+        <v>37</v>
+      </c>
+      <c r="J9">
+        <v>38</v>
+      </c>
+      <c r="K9" s="9">
+        <v>51</v>
+      </c>
+      <c r="L9">
+        <v>53</v>
+      </c>
+      <c r="M9">
+        <v>832</v>
+      </c>
+      <c r="P9" s="12">
+        <v>7195</v>
+      </c>
+      <c r="S9" s="12">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
         <v>8600</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>83</v>
-      </c>
-      <c r="C3">
+      <c r="C10">
         <v>6927</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>115</v>
-      </c>
-      <c r="C4">
+      <c r="D10">
         <v>3830</v>
+      </c>
+      <c r="E10">
+        <v>3551</v>
+      </c>
+      <c r="F10">
+        <v>1816</v>
+      </c>
+      <c r="G10">
+        <v>567</v>
+      </c>
+      <c r="H10">
+        <v>486</v>
+      </c>
+      <c r="I10">
+        <v>435</v>
+      </c>
+      <c r="J10">
+        <v>386</v>
+      </c>
+      <c r="K10">
+        <v>290406</v>
+      </c>
+      <c r="L10">
+        <v>130287</v>
+      </c>
+      <c r="M10">
+        <v>46661</v>
+      </c>
+      <c r="P10" s="12">
+        <v>324411</v>
+      </c>
+      <c r="S10" s="12">
+        <v>120935</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -10194,7 +12819,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10212,21 +12837,21 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>35</v>
-      </c>
-      <c r="C2" s="9">
-        <v>486</v>
+        <v>83</v>
+      </c>
+      <c r="C2">
+        <v>8600</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="B3">
-        <v>37</v>
-      </c>
-      <c r="C3" s="9">
-        <v>435</v>
+        <v>83</v>
+      </c>
+      <c r="C3">
+        <v>6927</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
@@ -10234,10 +12859,10 @@
         <v>25</v>
       </c>
       <c r="B4">
-        <v>38</v>
-      </c>
-      <c r="C4" s="9">
-        <v>386</v>
+        <v>115</v>
+      </c>
+      <c r="C4">
+        <v>3830</v>
       </c>
     </row>
   </sheetData>
@@ -10251,7 +12876,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C4"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10268,33 +12893,33 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="9">
-        <v>51</v>
+      <c r="B2">
+        <v>35</v>
       </c>
       <c r="C2" s="9">
-        <v>290406</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="9">
-        <v>53</v>
+      <c r="B3">
+        <v>37</v>
       </c>
       <c r="C3" s="9">
-        <v>130287</v>
+        <v>435</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="9">
-        <v>832</v>
+      <c r="B4">
+        <v>38</v>
       </c>
       <c r="C4" s="9">
-        <v>46661</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -10307,8 +12932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10325,33 +12950,33 @@
       <c r="A2" t="s">
         <v>17</v>
       </c>
-      <c r="B2">
-        <v>29</v>
-      </c>
-      <c r="C2">
-        <v>3551</v>
+      <c r="B2" s="9">
+        <v>51</v>
+      </c>
+      <c r="C2" s="9">
+        <v>290406</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3">
-        <v>29</v>
-      </c>
-      <c r="C3">
-        <v>1816</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="9">
+        <v>53</v>
+      </c>
+      <c r="C3" s="9">
+        <v>130287</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>25</v>
       </c>
-      <c r="B4">
-        <v>31</v>
-      </c>
-      <c r="C4">
-        <v>567</v>
+      <c r="B4" s="9">
+        <v>832</v>
+      </c>
+      <c r="C4" s="9">
+        <v>46661</v>
       </c>
     </row>
   </sheetData>
@@ -10361,6 +12986,63 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>3551</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3">
+        <v>29</v>
+      </c>
+      <c r="C3">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>567</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>

--- a/Results/Resulaten Tabel excel.xlsx
+++ b/Results/Resulaten Tabel excel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7755" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - Results Rush Hour Sol" sheetId="1" r:id="rId1"/>
@@ -319,11 +319,11 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1255,12 +1255,12 @@
         <c:gapWidth val="0"/>
         <c:gapDepth val="308"/>
         <c:shape val="box"/>
-        <c:axId val="308867720"/>
-        <c:axId val="121620152"/>
+        <c:axId val="305901256"/>
+        <c:axId val="305907920"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="308867720"/>
+        <c:axId val="305901256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1297,7 +1297,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="121620152"/>
+        <c:crossAx val="305907920"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1305,7 +1305,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="121620152"/>
+        <c:axId val="305907920"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -1357,7 +1357,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308867720"/>
+        <c:crossAx val="305901256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2161,7 +2161,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -2861,7 +2860,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -3026,12 +3024,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="398382608"/>
-        <c:axId val="398383000"/>
-        <c:axId val="401719664"/>
+        <c:axId val="305907136"/>
+        <c:axId val="305904000"/>
+        <c:axId val="304551032"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="398382608"/>
+        <c:axId val="305907136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3068,7 +3066,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398383000"/>
+        <c:crossAx val="305904000"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3076,7 +3074,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="398383000"/>
+        <c:axId val="305904000"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3128,12 +3126,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398382608"/>
+        <c:crossAx val="305907136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="401719664"/>
+        <c:axId val="304551032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3166,7 +3164,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="398383000"/>
+        <c:crossAx val="305904000"/>
         <c:crosses val="autoZero"/>
         <c:tickLblSkip val="1"/>
         <c:tickMarkSkip val="1"/>
@@ -3708,12 +3706,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="309789680"/>
-        <c:axId val="309776152"/>
-        <c:axId val="308697824"/>
+        <c:axId val="305900472"/>
+        <c:axId val="305905176"/>
+        <c:axId val="306223176"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="309789680"/>
+        <c:axId val="305900472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3750,7 +3748,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309776152"/>
+        <c:crossAx val="305905176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3758,7 +3756,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="309776152"/>
+        <c:axId val="305905176"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -3810,12 +3808,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309789680"/>
+        <c:crossAx val="305900472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="308697824"/>
+        <c:axId val="306223176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3824,7 +3822,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="309776152"/>
+        <c:crossAx val="305905176"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -4389,12 +4387,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="309778616"/>
-        <c:axId val="310547240"/>
-        <c:axId val="310512720"/>
+        <c:axId val="305902432"/>
+        <c:axId val="305907528"/>
+        <c:axId val="306218512"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="309778616"/>
+        <c:axId val="305902432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4431,7 +4429,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310547240"/>
+        <c:crossAx val="305907528"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4439,7 +4437,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310547240"/>
+        <c:axId val="305907528"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -4491,12 +4489,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="309778616"/>
+        <c:crossAx val="305902432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="310512720"/>
+        <c:axId val="306218512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4505,7 +4503,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310547240"/>
+        <c:crossAx val="305907528"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -5070,12 +5068,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="122150960"/>
-        <c:axId val="122150568"/>
-        <c:axId val="310516960"/>
+        <c:axId val="305902040"/>
+        <c:axId val="305902824"/>
+        <c:axId val="306220208"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="122150960"/>
+        <c:axId val="305902040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5112,7 +5110,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122150568"/>
+        <c:crossAx val="305902824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5120,7 +5118,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="122150568"/>
+        <c:axId val="305902824"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5172,12 +5170,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122150960"/>
+        <c:crossAx val="305902040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="310516960"/>
+        <c:axId val="306220208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5186,7 +5184,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="122150568"/>
+        <c:crossAx val="305902824"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -5758,12 +5756,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="122151352"/>
-        <c:axId val="310261864"/>
-        <c:axId val="310514416"/>
+        <c:axId val="305906352"/>
+        <c:axId val="305903216"/>
+        <c:axId val="306224448"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="122151352"/>
+        <c:axId val="305906352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5800,7 +5798,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310261864"/>
+        <c:crossAx val="305903216"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5808,7 +5806,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310261864"/>
+        <c:axId val="305903216"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -5860,12 +5858,12 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="122151352"/>
+        <c:crossAx val="305906352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="310514416"/>
+        <c:axId val="306224448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5874,7 +5872,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="310261864"/>
+        <c:crossAx val="305903216"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
       <c:spPr>
@@ -6615,12 +6613,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="310262256"/>
-        <c:axId val="310262648"/>
+        <c:axId val="305905568"/>
+        <c:axId val="304499480"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="310262256"/>
+        <c:axId val="305905568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6657,7 +6655,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310262648"/>
+        <c:crossAx val="304499480"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6665,7 +6663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="310262648"/>
+        <c:axId val="304499480"/>
         <c:scaling>
           <c:logBase val="10"/>
           <c:orientation val="minMax"/>
@@ -6717,7 +6715,7 @@
             <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="310262256"/>
+        <c:crossAx val="305905568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -11898,7 +11896,7 @@
   </sheetPr>
   <dimension ref="A1:IV23"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="C12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
@@ -11911,15 +11909,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
     </row>
     <row r="2" spans="1:7" ht="32.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -12474,8 +12472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S10"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -12714,7 +12712,7 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
       <c r="B9">
@@ -12761,7 +12759,7 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>27</v>
       </c>
       <c r="B10">
@@ -12932,7 +12930,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
